--- a/sputnik/personal/ee/262ee.xlsx
+++ b/sputnik/personal/ee/262ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,6 +37,21 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -50,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,14 +84,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -122,19 +123,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -147,10 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -160,7 +147,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -170,29 +157,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -500,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F14:F15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -514,393 +486,254 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43393</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5130</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3510</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43253</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43702</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>4554</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="2">
+        <v>5280</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
+        <v>150</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>673.5</v>
+      </c>
+      <c r="G4" s="12">
+        <f>SUM(F4,F5)</f>
+        <v>795</v>
+      </c>
+      <c r="H4" s="12">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>3418</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43281</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4654</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>100</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F11" si="1">D4*E4</f>
-        <v>429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3468</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="2">
+        <v>3560</v>
+      </c>
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E5" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>108.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43366</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4930</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>276</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>1184.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3468</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43393</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5130</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E8" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3510</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>98.7</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43702</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>5280</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D15" si="2">C10-C8</f>
-        <v>150</v>
-      </c>
-      <c r="E10" s="17">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>673.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3560</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="E11" s="18">
+      <c r="E5" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
         <v>121.50000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>43724</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C6" s="2">
         <v>5430</v>
       </c>
-      <c r="D12" s="3">
-        <f t="shared" si="2"/>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E6" s="7">
         <v>4.49</v>
       </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
+      <c r="F6" s="5">
+        <f>D6*E6</f>
         <v>673.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
+      <c r="G6" s="12">
+        <f>SUM(F6,F7)</f>
+        <v>795</v>
+      </c>
+      <c r="H6" s="12">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C7" s="2">
         <v>3610</v>
       </c>
-      <c r="D13" s="3">
-        <f t="shared" si="2"/>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E7" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F13" s="6">
-        <f>D13*E13</f>
+      <c r="F7" s="5">
+        <f>D7*E7</f>
         <v>121.50000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>43752</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C8" s="2">
         <v>5580</v>
       </c>
-      <c r="D14" s="3">
-        <f t="shared" si="2"/>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E8" s="7">
         <v>4.49</v>
       </c>
-      <c r="F14" s="6">
-        <f>D14*E14</f>
+      <c r="F8" s="5">
+        <f>D8*E8</f>
         <v>673.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
+      <c r="G8" s="12">
+        <f>SUM(F8,F9)</f>
+        <v>795</v>
+      </c>
+      <c r="H8" s="12">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C9" s="2">
         <v>3660</v>
       </c>
-      <c r="D15" s="3">
-        <f t="shared" si="2"/>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E9" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F15" s="6">
-        <f>D15*E15</f>
+      <c r="F9" s="5">
+        <f>D9*E9</f>
         <v>121.50000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="12">
+        <f>SUM(G2:G9)</f>
+        <v>2385</v>
+      </c>
+      <c r="H10" s="12">
+        <f>SUM(H2:H9)</f>
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12">
+        <f>SUM(H10,-G10)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/262ee.xlsx
+++ b/sputnik/personal/ee/262ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="5">
-        <f>D6*E6</f>
+        <f t="shared" ref="F6:F11" si="2">D6*E6</f>
         <v>673.5</v>
       </c>
       <c r="G6" s="12">
@@ -647,7 +647,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="5">
-        <f>D7*E7</f>
+        <f t="shared" si="2"/>
         <v>121.50000000000001</v>
       </c>
       <c r="G7" s="12"/>
@@ -671,7 +671,7 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="5">
-        <f>D8*E8</f>
+        <f t="shared" si="2"/>
         <v>673.5</v>
       </c>
       <c r="G8" s="12">
@@ -698,40 +698,142 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="5">
-        <f>D9*E9</f>
+        <f t="shared" si="2"/>
         <v>121.50000000000001</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5" t="s">
+      <c r="A10" s="3">
+        <v>43955</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5680</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="3">C10-C8</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>449</v>
+      </c>
+      <c r="G10" s="12">
+        <f>SUM(F10,F11)</f>
+        <v>692</v>
+      </c>
+      <c r="H10" s="12">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3760</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>43984</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5830</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="4">C12-C10</f>
+        <v>150</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
+        <v>673.5</v>
+      </c>
+      <c r="G12" s="12">
+        <f>SUM(F12,F13)</f>
+        <v>916.5</v>
+      </c>
+      <c r="H12" s="12">
+        <v>916.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3860</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="5"/>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="12">
-        <f>SUM(G2:G9)</f>
-        <v>2385</v>
-      </c>
-      <c r="H10" s="12">
-        <f>SUM(H2:H9)</f>
-        <v>2385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
-        <f>SUM(H10,-G10)</f>
+      <c r="G14" s="12">
+        <f>SUM(G2:G13)</f>
+        <v>3993.5</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(H2:H13)</f>
+        <v>3993.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12">
+        <f>SUM(H14,-G14)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/262ee.xlsx
+++ b/sputnik/personal/ee/262ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -807,34 +807,85 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
+      <c r="A14" s="3">
+        <v>44039</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5880</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="6">C14-C12</f>
+        <v>50</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="7">D14*E14</f>
+        <v>235.5</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(F14,F15)</f>
+        <v>490.5</v>
+      </c>
+      <c r="H14" s="12">
+        <v>468.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3960</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="7"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="12">
-        <f>SUM(G2:G13)</f>
-        <v>3993.5</v>
-      </c>
-      <c r="H14" s="12">
-        <f>SUM(H2:H13)</f>
-        <v>3993.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12">
-        <f>SUM(H14,-G14)</f>
-        <v>0</v>
+      <c r="G16" s="12">
+        <f>SUM(G2:G15)</f>
+        <v>4484</v>
+      </c>
+      <c r="H16" s="12">
+        <f>SUM(H2:H15)</f>
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12">
+        <f>SUM(H16,-G16)</f>
+        <v>-22</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/262ee.xlsx
+++ b/sputnik/personal/ee/262ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -858,34 +858,85 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5" t="s">
+      <c r="A16" s="3">
+        <v>44102</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6080</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="8">C16-C14</f>
+        <v>200</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="9">D16*E16</f>
+        <v>942</v>
+      </c>
+      <c r="G16" s="12">
+        <f>SUM(F16,F17)</f>
+        <v>1197</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4060</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="9"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="12">
-        <f>SUM(G2:G15)</f>
-        <v>4484</v>
-      </c>
-      <c r="H16" s="12">
-        <f>SUM(H2:H15)</f>
-        <v>4462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12">
-        <f>SUM(H16,-G16)</f>
-        <v>-22</v>
+      <c r="G18" s="12">
+        <f>SUM(G2:G17)</f>
+        <v>5681</v>
+      </c>
+      <c r="H18" s="12">
+        <f>SUM(H2:H17)</f>
+        <v>5603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12">
+        <f>SUM(H18,-G18)</f>
+        <v>-78</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/262ee.xlsx
+++ b/sputnik/personal/ee/262ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Т2</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>итого за период</t>
+  </si>
+  <si>
+    <t>Т</t>
   </si>
 </sst>
 </file>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -495,89 +495,87 @@
   <sheetData>
     <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>43393</v>
+        <v>43984</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>5130</v>
+        <v>5830</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="7"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="5"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>3510</v>
+        <v>3860</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="5"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>43702</v>
+        <v>44039</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>5280</v>
+        <v>5880</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>150</v>
-      </c>
-      <c r="E4" s="7">
-        <v>4.49</v>
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>50</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.71</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>673.5</v>
+        <v>235.5</v>
       </c>
       <c r="G4" s="12">
         <f>SUM(F4,F5)</f>
-        <v>795</v>
+        <v>490.5</v>
       </c>
       <c r="H4" s="12">
-        <v>795</v>
+        <v>468.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -586,49 +584,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>3560</v>
+        <v>3960</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>121.50000000000001</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>43724</v>
+        <v>44102</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>5430</v>
+        <v>6080</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4.49</v>
+        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
+        <v>200</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4.71</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ref="F6:F11" si="2">D6*E6</f>
-        <v>673.5</v>
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>942</v>
       </c>
       <c r="G6" s="12">
         <f>SUM(F6,F7)</f>
-        <v>795</v>
+        <v>1197</v>
       </c>
       <c r="H6" s="12">
-        <v>795</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -637,49 +635,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>3610</v>
+        <v>4060</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="2"/>
-        <v>121.50000000000001</v>
+        <f t="shared" si="3"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>43752</v>
+        <v>44137</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>5580</v>
+        <v>6130</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.49</v>
+        <f t="shared" ref="D8:D9" si="4">C8-C6</f>
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.71</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="2"/>
-        <v>673.5</v>
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>235.5</v>
       </c>
       <c r="G8" s="12">
         <f>SUM(F8,F9)</f>
-        <v>795</v>
+        <v>337.5</v>
       </c>
       <c r="H8" s="12">
-        <v>795</v>
+        <v>321.7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -688,255 +686,75 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>3660</v>
+        <v>4100</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="E9" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="2"/>
-        <v>121.50000000000001</v>
+        <f t="shared" si="5"/>
+        <v>102</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>43955</v>
+        <v>44151</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
-        <v>5680</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D11" si="3">C10-C8</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>4.49</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="2"/>
-        <v>449</v>
-      </c>
-      <c r="G10" s="12">
-        <f>SUM(F10,F11)</f>
-        <v>692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G10" s="12"/>
       <c r="H10" s="12">
-        <v>692</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3760</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="2"/>
-        <v>243.00000000000003</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>43984</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>5830</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" ref="D12:D13" si="4">C12-C10</f>
-        <v>150</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
-        <v>673.5</v>
-      </c>
-      <c r="G12" s="12">
-        <f>SUM(F12,F13)</f>
-        <v>916.5</v>
-      </c>
+      <c r="A11" s="8"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="12">
+        <f>SUM(G2:G8)</f>
+        <v>2025</v>
+      </c>
+      <c r="H11" s="12">
+        <f>SUM(H2:H10)</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="12">
-        <v>916.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3860</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="5"/>
-        <v>243.00000000000003</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>44039</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>5880</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:D15" si="6">C14-C12</f>
-        <v>50</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" ref="F14:F15" si="7">D14*E14</f>
-        <v>235.5</v>
-      </c>
-      <c r="G14" s="12">
-        <f>SUM(F14,F15)</f>
-        <v>490.5</v>
-      </c>
-      <c r="H14" s="12">
-        <v>468.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3960</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="7"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>44102</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>6080</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="8">C16-C14</f>
-        <v>200</v>
-      </c>
-      <c r="E16" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" ref="F16:F17" si="9">D16*E16</f>
-        <v>942</v>
-      </c>
-      <c r="G16" s="12">
-        <f>SUM(F16,F17)</f>
-        <v>1197</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4060</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="9"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="12">
-        <f>SUM(G2:G17)</f>
-        <v>5681</v>
-      </c>
-      <c r="H18" s="12">
-        <f>SUM(H2:H17)</f>
-        <v>5603</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
-        <f>SUM(H18,-G18)</f>
-        <v>-78</v>
+        <f>SUM(H11,-G11)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/262ee.xlsx
+++ b/sputnik/personal/ee/262ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -727,34 +727,136 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5" t="s">
+      <c r="A11" s="3">
+        <v>44410</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6480</v>
+      </c>
+      <c r="D11" s="2">
+        <f>C11-C8</f>
+        <v>350</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" ref="F11:F12" si="6">D11*E11</f>
+        <v>1736</v>
+      </c>
+      <c r="G11" s="12">
+        <f>SUM(F11,F12)</f>
+        <v>2084.4</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1887.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4230</v>
+      </c>
+      <c r="D12" s="2">
+        <f>C12-C9</f>
+        <v>130</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="6"/>
+        <v>348.40000000000003</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44446</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6590</v>
+      </c>
+      <c r="D13" s="2">
+        <f>C13-C11</f>
+        <v>110</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" ref="F13:F14" si="7">D13*E13</f>
+        <v>545.6</v>
+      </c>
+      <c r="G13" s="12">
+        <f>SUM(F13,F14)</f>
+        <v>706.40000000000009</v>
+      </c>
+      <c r="H13" s="12">
+        <v>606.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4290</v>
+      </c>
+      <c r="D14" s="2">
+        <f>C14-C12</f>
+        <v>60</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="7"/>
+        <v>160.80000000000001</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="12">
-        <f>SUM(G2:G8)</f>
-        <v>2025</v>
-      </c>
-      <c r="H11" s="12">
-        <f>SUM(H2:H10)</f>
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12">
-        <f>SUM(H11,-G11)</f>
-        <v>0</v>
+      <c r="G15" s="12">
+        <f>SUM(G2:G14)</f>
+        <v>4815.7999999999993</v>
+      </c>
+      <c r="H15" s="12">
+        <f>SUM(H2:H14)</f>
+        <v>4518.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12">
+        <f>SUM(H15,-G15)</f>
+        <v>-296.99999999999909</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/262ee.xlsx
+++ b/sputnik/personal/ee/262ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -829,34 +829,136 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5" t="s">
+      <c r="A15" s="3">
+        <v>44515</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6590</v>
+      </c>
+      <c r="D15" s="2">
+        <f>C15-C13</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ref="F15:F16" si="8">D15*E15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <f>SUM(F15,F16)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4290</v>
+      </c>
+      <c r="D16" s="2">
+        <f>C16-C14</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44515</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6840</v>
+      </c>
+      <c r="D17" s="2">
+        <f>C17-C15</f>
+        <v>250</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" ref="F17:F18" si="9">D17*E17</f>
+        <v>1240</v>
+      </c>
+      <c r="G17" s="12">
+        <f>SUM(F17,F18)</f>
+        <v>1642</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4440</v>
+      </c>
+      <c r="D18" s="2">
+        <f>C18-C16</f>
+        <v>150</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="9"/>
+        <v>402</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="12">
-        <f>SUM(G2:G14)</f>
+      <c r="G19" s="12">
+        <f>SUM(G2:G16)</f>
         <v>4815.7999999999993</v>
       </c>
-      <c r="H15" s="12">
-        <f>SUM(H2:H14)</f>
-        <v>4518.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12">
-        <f>SUM(H15,-G15)</f>
-        <v>-296.99999999999909</v>
+      <c r="H19" s="12">
+        <f>SUM(H2:H16)</f>
+        <v>4618.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12">
+        <f>SUM(H19,-G19)</f>
+        <v>-196.99999999999909</v>
       </c>
     </row>
   </sheetData>
